--- a/CINERGI-ResourceInventoryTemplate.xlsx
+++ b/CINERGI-ResourceInventoryTemplate.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
-  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhgarcia4\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="260" windowWidth="25640" windowHeight="16060" tabRatio="713" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="713" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -32,7 +37,7 @@
     <definedName name="Type" localSheetId="5">[1]Engine!$A$4:$A$5</definedName>
     <definedName name="Type">Engine!$A$4:$A$5</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -48,7 +53,7 @@
     <author>Stephen Richard</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1">
+    <comment ref="C1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -169,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -182,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -208,7 +213,7 @@
     <author>Stephen Richard</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -275,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="1">
+    <comment ref="C2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -288,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -301,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -315,7 +320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -329,7 +334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -342,7 +347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -369,7 +374,7 @@
     <author>Stephen Richard</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0">
+    <comment ref="H3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -382,7 +387,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="1">
+    <comment ref="B4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -407,7 +412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="1">
+    <comment ref="C4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -420,7 +425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="1">
+    <comment ref="B5" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -447,7 +452,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="1">
+    <comment ref="C5" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -501,7 +506,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="1">
+    <comment ref="B6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -526,7 +531,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="2">
+    <comment ref="C6" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -539,7 +544,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="1">
+    <comment ref="B7" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -566,7 +571,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="1">
+    <comment ref="C7" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -580,7 +585,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="1">
+    <comment ref="B8" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -606,7 +611,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="1">
+    <comment ref="C8" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -620,7 +625,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="1">
+    <comment ref="B9" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -646,7 +651,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="1">
+    <comment ref="C9" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -660,7 +665,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="1">
+    <comment ref="B10" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -685,7 +690,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="1">
+    <comment ref="C10" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -698,7 +703,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="1">
+    <comment ref="B14" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -727,7 +732,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="1">
+    <comment ref="C14" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -740,7 +745,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="1">
+    <comment ref="B15" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -766,7 +771,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C15" authorId="1">
+    <comment ref="C15" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -780,7 +785,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="1">
+    <comment ref="B16" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -805,7 +810,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="1">
+    <comment ref="C16" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -818,7 +823,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="1">
+    <comment ref="B20" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -845,7 +850,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="1">
+    <comment ref="C20" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -859,7 +864,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C21" authorId="1">
+    <comment ref="C21" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -874,7 +879,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="1">
+    <comment ref="B22" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -899,7 +904,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C22" authorId="1">
+    <comment ref="C22" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -913,7 +918,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B23" authorId="1">
+    <comment ref="B23" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -938,7 +943,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C23" authorId="1">
+    <comment ref="C23" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -952,7 +957,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="1">
+    <comment ref="B24" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -977,7 +982,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C24" authorId="1">
+    <comment ref="C24" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -991,7 +996,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B25" authorId="1">
+    <comment ref="B25" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1016,7 +1021,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C25" authorId="1">
+    <comment ref="C25" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1030,7 +1035,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="0">
+    <comment ref="C26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1044,7 +1049,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B27" authorId="1">
+    <comment ref="B27" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1070,7 +1075,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C27" authorId="1">
+    <comment ref="C27" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1085,7 +1090,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A30" authorId="1">
+    <comment ref="A30" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1110,7 +1115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B30" authorId="1">
+    <comment ref="B30" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1135,7 +1140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="1">
+    <comment ref="B31" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1160,7 +1165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A32" authorId="1">
+    <comment ref="A32" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1186,7 +1191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B32" authorId="1">
+    <comment ref="B32" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1212,7 +1217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B33" authorId="1">
+    <comment ref="B33" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1238,7 +1243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A35" authorId="1">
+    <comment ref="A35" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1276,7 +1281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B41" authorId="0">
+    <comment ref="B41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1292,7 +1297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A42" authorId="1">
+    <comment ref="A42" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1319,7 +1324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B42" authorId="0">
+    <comment ref="B42" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1332,7 +1337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B43" authorId="0">
+    <comment ref="B43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1345,7 +1350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B44" authorId="0">
+    <comment ref="B44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1369,7 +1374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B45" authorId="1">
+    <comment ref="B45" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1397,7 +1402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B46" authorId="1">
+    <comment ref="B46" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1425,7 +1430,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B47" authorId="1">
+    <comment ref="B47" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1452,7 +1457,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B48" authorId="1">
+    <comment ref="B48" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1477,7 +1482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A55" authorId="1">
+    <comment ref="A55" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1502,7 +1507,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B59" authorId="1">
+    <comment ref="B59" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1529,7 +1534,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B60" authorId="1">
+    <comment ref="B60" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1554,7 +1559,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B61" authorId="1">
+    <comment ref="B61" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1581,7 +1586,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B62" authorId="1">
+    <comment ref="B62" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1605,7 +1610,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B65" authorId="1">
+    <comment ref="B65" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1629,7 +1634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B73" authorId="0">
+    <comment ref="B73" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1652,7 +1657,7 @@
     <author>Stephen Richard</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0">
+    <comment ref="B6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1666,7 +1671,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0">
+    <comment ref="A11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1689,7 +1694,7 @@
     <author>Stephen Richard</author>
   </authors>
   <commentList>
-    <comment ref="B13" authorId="0">
+    <comment ref="B13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1719,7 +1724,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="549">
   <si>
     <t>Revision</t>
   </si>
@@ -3503,18 +3508,30 @@
   <si>
     <t>https://www.earthcube.org/</t>
   </si>
+  <si>
+    <t>EarthChem</t>
+  </si>
+  <si>
+    <t>geochemistry</t>
+  </si>
+  <si>
+    <t>Website for geochemical, geochronological, and petrological data</t>
+  </si>
+  <si>
+    <t>http://www.earthchem.org/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\Thh:mm"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="82" x14ac:knownFonts="1">
+  <fonts count="82">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6441,6 +6458,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -6493,7 +6513,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6553,14 +6573,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -7221,7 +7241,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="About"/>
@@ -7569,22 +7589,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:E23"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.33203125" customWidth="1"/>
+    <col min="3" max="3" width="80.375" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="18">
+    <row r="1" spans="2:5" ht="18.75">
       <c r="B1" s="40" t="s">
         <v>356</v>
       </c>
@@ -7630,7 +7650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="28">
+    <row r="9" spans="2:5" ht="30">
       <c r="B9" s="34"/>
       <c r="C9" s="33" t="s">
         <v>336</v>
@@ -7680,8 +7700,8 @@
       <c r="D13" s="38"/>
       <c r="E13" s="35"/>
     </row>
-    <row r="14" spans="2:5" ht="15" thickBot="1"/>
-    <row r="15" spans="2:5" ht="16" thickBot="1">
+    <row r="14" spans="2:5" ht="15.75" thickBot="1"/>
+    <row r="15" spans="2:5" ht="15.75" thickBot="1">
       <c r="B15" s="50"/>
       <c r="C15" s="58" t="s">
         <v>267</v>
@@ -7692,14 +7712,14 @@
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="17" thickBot="1">
+    <row r="18" spans="3:5" ht="18" thickBot="1">
       <c r="C18" s="53" t="s">
         <v>268</v>
       </c>
       <c r="D18" s="56"/>
       <c r="E18" s="56"/>
     </row>
-    <row r="19" spans="3:5" ht="15" thickTop="1">
+    <row r="19" spans="3:5" ht="15.75" thickTop="1">
       <c r="C19" s="52" t="s">
         <v>1</v>
       </c>
@@ -7747,15 +7767,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:V42"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="9.375" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -7998,28 +8018,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="142" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="142" customWidth="1"/>
+    <col min="2" max="2" width="29.875" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" customWidth="1"/>
-    <col min="5" max="5" width="52.1640625" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="52.125" customWidth="1"/>
     <col min="6" max="6" width="29.5" customWidth="1"/>
     <col min="7" max="8" width="29.5" style="142" customWidth="1"/>
     <col min="9" max="9" width="14.5" customWidth="1"/>
     <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.125" customWidth="1"/>
+    <col min="12" max="12" width="15.375" customWidth="1"/>
     <col min="13" max="13" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8079,6 +8099,23 @@
       </c>
       <c r="F2" t="s">
         <v>544</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="B3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C3" t="s">
+        <v>480</v>
+      </c>
+      <c r="D3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E3" t="s">
+        <v>547</v>
+      </c>
+      <c r="F3" t="s">
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -8101,7 +8138,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:R14"/>
@@ -8110,25 +8147,25 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" style="210" customWidth="1"/>
-    <col min="2" max="2" width="53.6640625" style="210" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="210" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" style="199" customWidth="1"/>
-    <col min="5" max="5" width="48.6640625" style="140" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="210" customWidth="1"/>
+    <col min="1" max="1" width="16.875" style="210" customWidth="1"/>
+    <col min="2" max="2" width="53.625" style="210" customWidth="1"/>
+    <col min="3" max="3" width="20.125" style="210" customWidth="1"/>
+    <col min="4" max="4" width="23.125" style="199" customWidth="1"/>
+    <col min="5" max="5" width="48.625" style="140" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="210" customWidth="1"/>
     <col min="7" max="7" width="14" style="210" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="210" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="210" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="210" customWidth="1"/>
+    <col min="9" max="9" width="15.375" style="210" customWidth="1"/>
     <col min="10" max="10" width="25.5" style="210" customWidth="1"/>
     <col min="11" max="11" width="17.5" style="210" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.6640625" style="210" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.625" style="210" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.5" style="210" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="142"/>
+    <col min="14" max="16384" width="8.875" style="142"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="65" customHeight="1">
+    <row r="1" spans="1:18" ht="65.099999999999994" customHeight="1">
       <c r="A1" s="226" t="s">
         <v>319</v>
       </c>
@@ -8182,7 +8219,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="60">
+    <row r="3" spans="1:18" ht="78.75">
       <c r="A3" s="211" t="s">
         <v>479</v>
       </c>
@@ -8209,7 +8246,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="40">
+    <row r="4" spans="1:18" ht="45">
       <c r="A4" s="211" t="s">
         <v>483</v>
       </c>
@@ -8240,7 +8277,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="110">
+    <row r="5" spans="1:18" ht="135">
       <c r="A5" s="211" t="s">
         <v>487</v>
       </c>
@@ -8271,7 +8308,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="70">
+    <row r="6" spans="1:18" ht="78.75">
       <c r="A6" s="211" t="s">
         <v>490</v>
       </c>
@@ -8302,7 +8339,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="90">
+    <row r="7" spans="1:18" ht="112.5">
       <c r="A7" s="211" t="s">
         <v>493</v>
       </c>
@@ -8401,7 +8438,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8412,19 +8449,19 @@
       <selection pane="bottomRight" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="30.375" customWidth="1"/>
     <col min="3" max="3" width="35" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" style="32" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" style="32" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="81.83203125" customWidth="1"/>
-    <col min="8" max="8" width="87.83203125" style="48" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="32" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="32" customWidth="1"/>
+    <col min="6" max="6" width="16.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="81.875" customWidth="1"/>
+    <col min="8" max="8" width="87.875" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19">
+    <row r="1" spans="1:8" ht="19.5">
       <c r="A1" s="237" t="s">
         <v>227</v>
       </c>
@@ -8435,7 +8472,7 @@
       <c r="F1" s="237"/>
       <c r="G1" s="238"/>
     </row>
-    <row r="2" spans="1:8" ht="70.25" customHeight="1">
+    <row r="2" spans="1:8" ht="70.349999999999994" customHeight="1">
       <c r="A2" s="43"/>
       <c r="B2" s="147" t="s">
         <v>228</v>
@@ -8498,7 +8535,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="142" customFormat="1" ht="98">
+    <row r="5" spans="1:8" s="142" customFormat="1" ht="120">
       <c r="A5" s="200"/>
       <c r="B5" s="203" t="s">
         <v>43</v>
@@ -8522,7 +8559,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="142" customFormat="1" ht="28">
+    <row r="6" spans="1:8" s="142" customFormat="1" ht="30">
       <c r="A6" s="204"/>
       <c r="B6" s="201" t="s">
         <v>114</v>
@@ -8546,7 +8583,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="142" customFormat="1" ht="42">
+    <row r="7" spans="1:8" s="142" customFormat="1" ht="60">
       <c r="A7" s="205"/>
       <c r="B7" s="201" t="s">
         <v>21</v>
@@ -8570,7 +8607,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="142" customFormat="1" ht="100.25" customHeight="1">
+    <row r="8" spans="1:8" s="142" customFormat="1" ht="100.35" customHeight="1">
       <c r="A8" s="184"/>
       <c r="B8" s="149" t="s">
         <v>20</v>
@@ -8594,7 +8631,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="142" customFormat="1" ht="18.5" customHeight="1">
+    <row r="9" spans="1:8" s="142" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A9" s="152"/>
       <c r="B9" s="149" t="s">
         <v>344</v>
@@ -8618,7 +8655,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="142" customFormat="1" ht="70">
+    <row r="10" spans="1:8" s="142" customFormat="1" ht="75">
       <c r="A10" s="152"/>
       <c r="B10" s="149" t="s">
         <v>345</v>
@@ -8642,7 +8679,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="142" customFormat="1" ht="28">
+    <row r="11" spans="1:8" s="142" customFormat="1" ht="45">
       <c r="A11" s="152"/>
       <c r="B11" s="149" t="s">
         <v>346</v>
@@ -8688,7 +8725,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="68" customFormat="1" ht="61.75" customHeight="1">
+    <row r="13" spans="1:8" s="68" customFormat="1" ht="61.7" customHeight="1">
       <c r="A13" s="64"/>
       <c r="C13" s="146" t="s">
         <v>337</v>
@@ -8699,7 +8736,7 @@
       <c r="G13" s="66"/>
       <c r="H13" s="67"/>
     </row>
-    <row r="14" spans="1:8" ht="17" customHeight="1">
+    <row r="14" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="148"/>
       <c r="B14" s="149" t="s">
         <v>70</v>
@@ -8723,7 +8760,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18.5" customHeight="1">
+    <row r="15" spans="1:8" ht="18.600000000000001" customHeight="1">
       <c r="A15" s="152"/>
       <c r="B15" s="149" t="s">
         <v>26</v>
@@ -8769,7 +8806,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="28">
+    <row r="17" spans="1:8" ht="45">
       <c r="A17" s="152"/>
       <c r="B17" s="149" t="s">
         <v>31</v>
@@ -8815,7 +8852,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="142" customFormat="1" ht="34.25" customHeight="1">
+    <row r="19" spans="1:8" s="142" customFormat="1" ht="34.35" customHeight="1">
       <c r="A19" s="160"/>
       <c r="B19" s="149" t="s">
         <v>35</v>
@@ -8839,7 +8876,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="142" customFormat="1" ht="14.5" customHeight="1">
+    <row r="20" spans="1:8" s="142" customFormat="1" ht="14.45" customHeight="1">
       <c r="A20" s="163"/>
       <c r="B20" s="149" t="s">
         <v>45</v>
@@ -8863,7 +8900,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="142" customFormat="1" ht="56">
+    <row r="21" spans="1:8" s="142" customFormat="1" ht="60">
       <c r="A21" s="163"/>
       <c r="B21" s="164" t="s">
         <v>22</v>
@@ -9069,7 +9106,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="34.25" customHeight="1">
+    <row r="30" spans="1:8" ht="34.35" customHeight="1">
       <c r="A30" s="169" t="s">
         <v>39</v>
       </c>
@@ -9096,7 +9133,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="56">
+    <row r="31" spans="1:8" ht="51">
       <c r="A31" s="172" t="s">
         <v>125</v>
       </c>
@@ -9119,7 +9156,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="28">
+    <row r="32" spans="1:8" ht="30">
       <c r="A32" s="169" t="s">
         <v>36</v>
       </c>
@@ -9244,7 +9281,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="42">
+    <row r="37" spans="1:8" ht="38.25">
       <c r="A37" s="169" t="s">
         <v>72</v>
       </c>
@@ -9318,7 +9355,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="56" customHeight="1">
+    <row r="40" spans="1:8" ht="56.1" customHeight="1">
       <c r="A40" s="175"/>
       <c r="B40" s="165" t="s">
         <v>190</v>
@@ -9341,7 +9378,7 @@
       </c>
       <c r="H40" s="108"/>
     </row>
-    <row r="41" spans="1:8" ht="31.25" customHeight="1">
+    <row r="41" spans="1:8" ht="31.35" customHeight="1">
       <c r="A41" s="175"/>
       <c r="B41" s="149" t="s">
         <v>111</v>
@@ -9366,7 +9403,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="31.25" customHeight="1">
+    <row r="42" spans="1:8" ht="31.35" customHeight="1">
       <c r="A42" s="234" t="s">
         <v>48</v>
       </c>
@@ -9391,7 +9428,7 @@
       </c>
       <c r="H42" s="119"/>
     </row>
-    <row r="43" spans="1:8" ht="32" customHeight="1">
+    <row r="43" spans="1:8" ht="32.1" customHeight="1">
       <c r="A43" s="235"/>
       <c r="B43" s="161" t="s">
         <v>188</v>
@@ -9414,7 +9451,7 @@
       </c>
       <c r="H43" s="119"/>
     </row>
-    <row r="44" spans="1:8" ht="23.5" customHeight="1">
+    <row r="44" spans="1:8" ht="23.45" customHeight="1">
       <c r="A44" s="235"/>
       <c r="B44" s="149" t="s">
         <v>112</v>
@@ -9437,7 +9474,7 @@
       </c>
       <c r="H44" s="113"/>
     </row>
-    <row r="45" spans="1:8" ht="35" customHeight="1">
+    <row r="45" spans="1:8" ht="35.1" customHeight="1">
       <c r="A45" s="235"/>
       <c r="B45" s="179" t="s">
         <v>41</v>
@@ -9461,7 +9498,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="70">
+    <row r="46" spans="1:8" ht="75">
       <c r="A46" s="235"/>
       <c r="B46" s="179" t="s">
         <v>42</v>
@@ -9510,7 +9547,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="28">
+    <row r="48" spans="1:8" ht="30">
       <c r="A48" s="235"/>
       <c r="B48" s="149" t="s">
         <v>24</v>
@@ -9534,7 +9571,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="33">
+    <row r="49" spans="1:8" ht="45">
       <c r="A49" s="235"/>
       <c r="B49" s="149" t="s">
         <v>44</v>
@@ -9558,7 +9595,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="44.5" customHeight="1">
+    <row r="50" spans="1:8" ht="44.45" customHeight="1">
       <c r="A50" s="235"/>
       <c r="B50" s="149" t="s">
         <v>46</v>
@@ -9582,7 +9619,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="45.5" customHeight="1">
+    <row r="51" spans="1:8" ht="45.6" customHeight="1">
       <c r="A51" s="236"/>
       <c r="B51" s="149" t="s">
         <v>47</v>
@@ -9762,7 +9799,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="32" customFormat="1" ht="42">
+    <row r="59" spans="1:8" s="32" customFormat="1" ht="45">
       <c r="A59" s="184"/>
       <c r="B59" s="179" t="s">
         <v>59</v>
@@ -9812,7 +9849,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="32" customFormat="1" ht="70">
+    <row r="61" spans="1:8" s="32" customFormat="1" ht="75">
       <c r="A61" s="184"/>
       <c r="B61" s="149" t="s">
         <v>77</v>
@@ -9953,7 +9990,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="20" thickBot="1">
+    <row r="67" spans="1:8" ht="20.25" thickBot="1">
       <c r="A67" s="41" t="s">
         <v>160</v>
       </c>
@@ -9978,7 +10015,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15" thickTop="1">
+    <row r="68" spans="1:8" ht="15.75" thickTop="1">
       <c r="A68" s="25"/>
       <c r="B68" s="63" t="s">
         <v>64</v>
@@ -10090,7 +10127,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="66">
+    <row r="73" spans="1:8" ht="90">
       <c r="B73" s="63" t="s">
         <v>175</v>
       </c>
@@ -10270,18 +10307,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" customWidth="1"/>
+    <col min="1" max="1" width="40.375" customWidth="1"/>
     <col min="2" max="2" width="56.5" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="3" max="3" width="38.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" customHeight="1" thickBot="1">
@@ -10294,7 +10331,7 @@
       <c r="E1" s="243"/>
       <c r="F1" s="243"/>
     </row>
-    <row r="2" spans="1:6" ht="35.5" customHeight="1" thickTop="1">
+    <row r="2" spans="1:6" ht="35.450000000000003" customHeight="1" thickTop="1">
       <c r="A2" s="242" t="s">
         <v>324</v>
       </c>
@@ -10406,17 +10443,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="189" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" style="142" customWidth="1"/>
+    <col min="1" max="1" width="19.375" style="189" customWidth="1"/>
+    <col min="2" max="2" width="33.625" style="142" customWidth="1"/>
     <col min="3" max="3" width="71.5" style="142" customWidth="1"/>
     <col min="4" max="4" width="33.5" style="142" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="142"/>
+    <col min="5" max="16384" width="8.875" style="142"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" thickTop="1" thickBot="1">
@@ -10433,7 +10470,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="58" thickTop="1" thickBot="1">
+    <row r="2" spans="1:4" ht="61.5" thickTop="1" thickBot="1">
       <c r="A2" s="189" t="s">
         <v>364</v>
       </c>
@@ -10447,7 +10484,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="43" thickBot="1">
+    <row r="3" spans="1:4" ht="45.75" thickBot="1">
       <c r="A3" s="190" t="s">
         <v>367</v>
       </c>
@@ -10461,7 +10498,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="29" thickBot="1">
+    <row r="4" spans="1:4" ht="30.75" thickBot="1">
       <c r="A4" s="190" t="s">
         <v>480</v>
       </c>
@@ -10475,7 +10512,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" thickBot="1">
+    <row r="5" spans="1:4" ht="16.5" thickBot="1">
       <c r="A5" s="190" t="s">
         <v>372</v>
       </c>
@@ -10503,7 +10540,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="42">
+    <row r="7" spans="1:4" ht="45">
       <c r="A7" s="223" t="s">
         <v>532</v>
       </c>
@@ -10517,7 +10554,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30">
+    <row r="8" spans="1:4" ht="31.5">
       <c r="A8" s="223" t="s">
         <v>535</v>
       </c>
@@ -10531,7 +10568,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="183" thickBot="1">
+    <row r="9" spans="1:4" ht="195.75" thickBot="1">
       <c r="A9" s="191" t="s">
         <v>78</v>
       </c>
@@ -10545,7 +10582,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="29" thickBot="1">
+    <row r="10" spans="1:4" ht="30.75" thickBot="1">
       <c r="A10" s="190" t="s">
         <v>375</v>
       </c>
@@ -10559,7 +10596,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="29" thickBot="1">
+    <row r="11" spans="1:4" ht="30.75" thickBot="1">
       <c r="A11" s="190" t="s">
         <v>378</v>
       </c>
@@ -10573,7 +10610,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31" thickBot="1">
+    <row r="12" spans="1:4" ht="45.75" thickBot="1">
       <c r="A12" s="190" t="s">
         <v>380</v>
       </c>
@@ -10587,7 +10624,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="57" thickBot="1">
+    <row r="13" spans="1:4" ht="60.75" thickBot="1">
       <c r="A13" s="190" t="s">
         <v>382</v>
       </c>
@@ -10601,7 +10638,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="99" thickBot="1">
+    <row r="14" spans="1:4" ht="105.75" thickBot="1">
       <c r="A14" s="190" t="s">
         <v>385</v>
       </c>
@@ -10615,7 +10652,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="57" thickBot="1">
+    <row r="15" spans="1:4" ht="60.75" thickBot="1">
       <c r="A15" s="190" t="s">
         <v>388</v>
       </c>
@@ -10629,7 +10666,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="127" thickBot="1">
+    <row r="16" spans="1:4" ht="135.75" thickBot="1">
       <c r="A16" s="190" t="s">
         <v>391</v>
       </c>
@@ -10643,7 +10680,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16" thickBot="1">
+    <row r="17" spans="1:4" ht="16.5" thickBot="1">
       <c r="A17" s="190" t="s">
         <v>394</v>
       </c>
@@ -10655,7 +10692,7 @@
       </c>
       <c r="D17" s="23"/>
     </row>
-    <row r="18" spans="1:4" ht="71" thickBot="1">
+    <row r="18" spans="1:4" ht="90.75" thickBot="1">
       <c r="A18" s="190" t="s">
         <v>397</v>
       </c>
@@ -10669,7 +10706,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="29" thickBot="1">
+    <row r="19" spans="1:4" ht="30.75" thickBot="1">
       <c r="A19" s="190" t="s">
         <v>398</v>
       </c>
@@ -10683,7 +10720,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="71" thickBot="1">
+    <row r="20" spans="1:4" ht="75.75" thickBot="1">
       <c r="A20" s="190" t="s">
         <v>400</v>
       </c>
@@ -10697,7 +10734,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="85" thickBot="1">
+    <row r="21" spans="1:4" ht="90.75" thickBot="1">
       <c r="A21" s="190" t="s">
         <v>79</v>
       </c>
@@ -10711,7 +10748,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="56">
+    <row r="22" spans="1:4" ht="60">
       <c r="A22" s="192" t="s">
         <v>402</v>
       </c>
@@ -10725,7 +10762,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="71" thickBot="1">
+    <row r="23" spans="1:4" ht="75.75" thickBot="1">
       <c r="A23" s="193" t="s">
         <v>404</v>
       </c>
@@ -10739,7 +10776,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="43" thickBot="1">
+    <row r="24" spans="1:4" ht="45.75" thickBot="1">
       <c r="A24" s="190" t="s">
         <v>406</v>
       </c>
@@ -10753,7 +10790,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="29" thickBot="1">
+    <row r="25" spans="1:4" ht="30.75" thickBot="1">
       <c r="A25" s="190" t="s">
         <v>408</v>
       </c>
@@ -10767,7 +10804,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="57" thickBot="1">
+    <row r="26" spans="1:4" ht="60.75" thickBot="1">
       <c r="A26" s="190" t="s">
         <v>410</v>
       </c>
@@ -10781,7 +10818,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="31" thickBot="1">
+    <row r="27" spans="1:4" ht="32.25" thickBot="1">
       <c r="A27" s="190" t="s">
         <v>412</v>
       </c>
@@ -10795,7 +10832,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="71" thickBot="1">
+    <row r="28" spans="1:4" ht="75.75" thickBot="1">
       <c r="A28" s="190" t="s">
         <v>414</v>
       </c>
@@ -10809,7 +10846,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="43" thickBot="1">
+    <row r="29" spans="1:4" ht="45.75" thickBot="1">
       <c r="A29" s="190" t="s">
         <v>416</v>
       </c>
@@ -10823,7 +10860,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="43" thickBot="1">
+    <row r="30" spans="1:4" ht="45.75" thickBot="1">
       <c r="A30" s="190" t="s">
         <v>418</v>
       </c>
@@ -10837,7 +10874,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="56">
+    <row r="31" spans="1:4" ht="60">
       <c r="A31" s="192" t="s">
         <v>420</v>
       </c>
@@ -10851,7 +10888,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="28">
+    <row r="32" spans="1:4" ht="30">
       <c r="A32" s="194" t="s">
         <v>422</v>
       </c>
@@ -10863,7 +10900,7 @@
       </c>
       <c r="D32" s="23"/>
     </row>
-    <row r="33" spans="1:4" ht="28">
+    <row r="33" spans="1:4" ht="30">
       <c r="A33" s="194" t="s">
         <v>424</v>
       </c>
@@ -10887,7 +10924,7 @@
       </c>
       <c r="D34" s="23"/>
     </row>
-    <row r="35" spans="1:4" ht="70">
+    <row r="35" spans="1:4" ht="75">
       <c r="A35" s="194" t="s">
         <v>430</v>
       </c>
@@ -10915,7 +10952,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="140">
+    <row r="37" spans="1:4" ht="150">
       <c r="A37" s="194" t="s">
         <v>80</v>
       </c>
@@ -10929,7 +10966,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="84">
+    <row r="38" spans="1:4" ht="90">
       <c r="A38" s="194" t="s">
         <v>433</v>
       </c>
@@ -10943,7 +10980,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="70">
+    <row r="39" spans="1:4" ht="75">
       <c r="A39" s="194" t="s">
         <v>436</v>
       </c>
@@ -10957,7 +10994,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="56">
+    <row r="40" spans="1:4" ht="60">
       <c r="A40" s="191" t="s">
         <v>439</v>
       </c>
@@ -10985,7 +11022,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="70">
+    <row r="42" spans="1:4" ht="75">
       <c r="A42" s="198" t="s">
         <v>81</v>
       </c>
@@ -11013,7 +11050,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="42">
+    <row r="44" spans="1:4" ht="45">
       <c r="A44" s="198" t="s">
         <v>444</v>
       </c>
@@ -11027,7 +11064,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="42">
+    <row r="45" spans="1:4" ht="45">
       <c r="A45" s="198" t="s">
         <v>447</v>
       </c>
@@ -11041,7 +11078,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="154">
+    <row r="46" spans="1:4" ht="165">
       <c r="A46" s="198" t="s">
         <v>82</v>
       </c>
@@ -11055,7 +11092,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="28">
+    <row r="47" spans="1:4" ht="30">
       <c r="A47" s="198" t="s">
         <v>83</v>
       </c>
@@ -11067,7 +11104,7 @@
       </c>
       <c r="D47" s="23"/>
     </row>
-    <row r="48" spans="1:4" ht="98">
+    <row r="48" spans="1:4" ht="105">
       <c r="A48" s="198" t="s">
         <v>450</v>
       </c>
@@ -11081,7 +11118,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="112">
+    <row r="49" spans="1:4" ht="120">
       <c r="A49" s="198" t="s">
         <v>452</v>
       </c>
@@ -11095,7 +11132,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="70">
+    <row r="50" spans="1:4" ht="75">
       <c r="A50" s="198" t="s">
         <v>454</v>
       </c>
@@ -11109,7 +11146,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="56">
+    <row r="51" spans="1:4" ht="60">
       <c r="A51" s="198" t="s">
         <v>456</v>
       </c>
@@ -11123,7 +11160,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="98">
+    <row r="52" spans="1:4" ht="105">
       <c r="A52" s="198" t="s">
         <v>459</v>
       </c>
@@ -11137,7 +11174,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="42">
+    <row r="53" spans="1:4" ht="45">
       <c r="A53" s="198" t="s">
         <v>462</v>
       </c>
@@ -11151,7 +11188,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="28">
+    <row r="54" spans="1:4" ht="30">
       <c r="A54" s="198" t="s">
         <v>513</v>
       </c>
@@ -11165,7 +11202,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="28">
+    <row r="55" spans="1:4" ht="30">
       <c r="A55" s="198" t="s">
         <v>463</v>
       </c>
@@ -11179,7 +11216,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="56">
+    <row r="56" spans="1:4" ht="60">
       <c r="A56" s="198" t="s">
         <v>466</v>
       </c>
@@ -11213,27 +11250,27 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="78.33203125" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.625" customWidth="1"/>
+    <col min="2" max="2" width="78.375" customWidth="1"/>
+    <col min="3" max="3" width="45.625" customWidth="1"/>
     <col min="4" max="4" width="50.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="42" customFormat="1" ht="15" thickBot="1"/>
-    <row r="2" spans="1:3" s="42" customFormat="1" ht="17" thickBot="1">
+    <row r="1" spans="1:3" s="42" customFormat="1" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:3" s="42" customFormat="1" ht="18" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:3" s="42" customFormat="1" ht="16" thickTop="1" thickBot="1">
+    <row r="3" spans="1:3" s="42" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>230</v>
       </c>
@@ -11247,7 +11284,7 @@
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1">
+    <row r="6" spans="1:3" ht="15.75" thickBot="1">
       <c r="A6" s="24"/>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
@@ -11261,7 +11298,7 @@
       </c>
       <c r="C7" s="24"/>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1">
+    <row r="8" spans="1:3" ht="15.75" thickBot="1">
       <c r="A8" s="15" t="s">
         <v>225</v>
       </c>
@@ -11275,12 +11312,12 @@
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1">
+    <row r="10" spans="1:3" ht="15.75" thickBot="1">
       <c r="A10" s="24"/>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
     </row>
-    <row r="11" spans="1:3" ht="42">
+    <row r="11" spans="1:3" ht="45">
       <c r="A11" s="12" t="s">
         <v>176</v>
       </c>
@@ -11316,7 +11353,7 @@
       </c>
       <c r="C14" s="24"/>
     </row>
-    <row r="15" spans="1:3" ht="28">
+    <row r="15" spans="1:3" ht="30">
       <c r="A15" s="11" t="s">
         <v>182</v>
       </c>
@@ -11325,7 +11362,7 @@
       </c>
       <c r="C15" s="24"/>
     </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1">
+    <row r="16" spans="1:3" ht="15.75" thickBot="1">
       <c r="A16" s="9" t="s">
         <v>183</v>
       </c>
@@ -11347,14 +11384,14 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet8" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">

--- a/CINERGI-ResourceInventoryTemplate.xlsx
+++ b/CINERGI-ResourceInventoryTemplate.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
-  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jguo2\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="260" windowWidth="25640" windowHeight="16060" tabRatio="713" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="713" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -32,7 +37,7 @@
     <definedName name="Type" localSheetId="5">[1]Engine!$A$4:$A$5</definedName>
     <definedName name="Type">Engine!$A$4:$A$5</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -48,7 +53,7 @@
     <author>Stephen Richard</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1">
+    <comment ref="C1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -169,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -182,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -208,7 +213,7 @@
     <author>Stephen Richard</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -275,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="1">
+    <comment ref="C2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -288,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -301,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -315,7 +320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -329,7 +334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -342,7 +347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -369,7 +374,7 @@
     <author>Stephen Richard</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0">
+    <comment ref="H3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -382,7 +387,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="1">
+    <comment ref="B4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -407,7 +412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="1">
+    <comment ref="C4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -420,7 +425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="1">
+    <comment ref="B5" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -447,7 +452,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="1">
+    <comment ref="C5" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -501,7 +506,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="1">
+    <comment ref="B6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -526,7 +531,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="2">
+    <comment ref="C6" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -539,7 +544,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="1">
+    <comment ref="B7" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -566,7 +571,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="1">
+    <comment ref="C7" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -580,7 +585,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="1">
+    <comment ref="B8" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -606,7 +611,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="1">
+    <comment ref="C8" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -620,7 +625,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="1">
+    <comment ref="B9" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -646,7 +651,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="1">
+    <comment ref="C9" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -660,7 +665,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="1">
+    <comment ref="B10" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -685,7 +690,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="1">
+    <comment ref="C10" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -698,7 +703,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="1">
+    <comment ref="B14" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -727,7 +732,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="1">
+    <comment ref="C14" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -740,7 +745,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="1">
+    <comment ref="B15" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -766,7 +771,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C15" authorId="1">
+    <comment ref="C15" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -780,7 +785,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="1">
+    <comment ref="B16" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -805,7 +810,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="1">
+    <comment ref="C16" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -818,7 +823,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="1">
+    <comment ref="B20" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -845,7 +850,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="1">
+    <comment ref="C20" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -859,7 +864,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C21" authorId="1">
+    <comment ref="C21" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -874,7 +879,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="1">
+    <comment ref="B22" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -899,7 +904,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C22" authorId="1">
+    <comment ref="C22" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -913,7 +918,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B23" authorId="1">
+    <comment ref="B23" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -938,7 +943,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C23" authorId="1">
+    <comment ref="C23" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -952,7 +957,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="1">
+    <comment ref="B24" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -977,7 +982,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C24" authorId="1">
+    <comment ref="C24" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -991,7 +996,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B25" authorId="1">
+    <comment ref="B25" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1016,7 +1021,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C25" authorId="1">
+    <comment ref="C25" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1030,7 +1035,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="0">
+    <comment ref="C26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1044,7 +1049,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B27" authorId="1">
+    <comment ref="B27" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1070,7 +1075,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C27" authorId="1">
+    <comment ref="C27" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1085,7 +1090,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A30" authorId="1">
+    <comment ref="A30" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1110,7 +1115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B30" authorId="1">
+    <comment ref="B30" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1135,7 +1140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="1">
+    <comment ref="B31" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1160,7 +1165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A32" authorId="1">
+    <comment ref="A32" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1186,7 +1191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B32" authorId="1">
+    <comment ref="B32" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1212,7 +1217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B33" authorId="1">
+    <comment ref="B33" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1238,7 +1243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A35" authorId="1">
+    <comment ref="A35" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1276,7 +1281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B41" authorId="0">
+    <comment ref="B41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1292,7 +1297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A42" authorId="1">
+    <comment ref="A42" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1319,7 +1324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B42" authorId="0">
+    <comment ref="B42" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1332,7 +1337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B43" authorId="0">
+    <comment ref="B43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1345,7 +1350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B44" authorId="0">
+    <comment ref="B44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1369,7 +1374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B45" authorId="1">
+    <comment ref="B45" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1397,7 +1402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B46" authorId="1">
+    <comment ref="B46" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1425,7 +1430,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B47" authorId="1">
+    <comment ref="B47" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1452,7 +1457,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B48" authorId="1">
+    <comment ref="B48" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1477,7 +1482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A55" authorId="1">
+    <comment ref="A55" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1502,7 +1507,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B59" authorId="1">
+    <comment ref="B59" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1529,7 +1534,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B60" authorId="1">
+    <comment ref="B60" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1554,7 +1559,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B61" authorId="1">
+    <comment ref="B61" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1581,7 +1586,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B62" authorId="1">
+    <comment ref="B62" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1605,7 +1610,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B65" authorId="1">
+    <comment ref="B65" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1629,7 +1634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B73" authorId="0">
+    <comment ref="B73" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1652,7 +1657,7 @@
     <author>Stephen Richard</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0">
+    <comment ref="B6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1666,7 +1671,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0">
+    <comment ref="A11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1689,7 +1694,7 @@
     <author>Stephen Richard</author>
   </authors>
   <commentList>
-    <comment ref="B13" authorId="0">
+    <comment ref="B13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1719,7 +1724,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="549">
   <si>
     <t>Revision</t>
   </si>
@@ -3503,18 +3508,30 @@
   <si>
     <t>https://www.earthcube.org/</t>
   </si>
+  <si>
+    <t>National Water Information System</t>
+  </si>
+  <si>
+    <t>USGS Organization</t>
+  </si>
+  <si>
+    <t>Website for all the national water data like precipitation and water quality</t>
+  </si>
+  <si>
+    <t>https://waterdata.usgs.gov/nwis/rt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\Thh:mm"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="82" x14ac:knownFonts="1">
+  <fonts count="82">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6441,6 +6458,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -6493,7 +6513,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6553,14 +6573,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -7221,7 +7241,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="About"/>
@@ -7569,22 +7589,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:E23"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.33203125" customWidth="1"/>
+    <col min="3" max="3" width="80.375" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="18">
+    <row r="1" spans="2:5" ht="18.75">
       <c r="B1" s="40" t="s">
         <v>356</v>
       </c>
@@ -7630,7 +7650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="28">
+    <row r="9" spans="2:5" ht="30">
       <c r="B9" s="34"/>
       <c r="C9" s="33" t="s">
         <v>336</v>
@@ -7680,8 +7700,8 @@
       <c r="D13" s="38"/>
       <c r="E13" s="35"/>
     </row>
-    <row r="14" spans="2:5" ht="15" thickBot="1"/>
-    <row r="15" spans="2:5" ht="16" thickBot="1">
+    <row r="14" spans="2:5" ht="15.75" thickBot="1"/>
+    <row r="15" spans="2:5" ht="15.75" thickBot="1">
       <c r="B15" s="50"/>
       <c r="C15" s="58" t="s">
         <v>267</v>
@@ -7692,14 +7712,14 @@
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="17" thickBot="1">
+    <row r="18" spans="3:5" ht="18" thickBot="1">
       <c r="C18" s="53" t="s">
         <v>268</v>
       </c>
       <c r="D18" s="56"/>
       <c r="E18" s="56"/>
     </row>
-    <row r="19" spans="3:5" ht="15" thickTop="1">
+    <row r="19" spans="3:5" ht="15.75" thickTop="1">
       <c r="C19" s="52" t="s">
         <v>1</v>
       </c>
@@ -7747,15 +7767,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:V42"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="9.375" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -7998,28 +8018,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="142" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="142" customWidth="1"/>
+    <col min="2" max="2" width="29.875" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" customWidth="1"/>
-    <col min="5" max="5" width="52.1640625" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="52.125" customWidth="1"/>
     <col min="6" max="6" width="29.5" customWidth="1"/>
     <col min="7" max="8" width="29.5" style="142" customWidth="1"/>
     <col min="9" max="9" width="14.5" customWidth="1"/>
     <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.125" customWidth="1"/>
+    <col min="12" max="12" width="15.375" customWidth="1"/>
     <col min="13" max="13" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8079,6 +8099,23 @@
       </c>
       <c r="F2" t="s">
         <v>544</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="B3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C3" t="s">
+        <v>546</v>
+      </c>
+      <c r="D3" t="s">
+        <v>542</v>
+      </c>
+      <c r="E3" t="s">
+        <v>547</v>
+      </c>
+      <c r="F3" t="s">
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -8088,9 +8125,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -8101,7 +8138,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:R14"/>
@@ -8110,25 +8147,25 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" style="210" customWidth="1"/>
-    <col min="2" max="2" width="53.6640625" style="210" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="210" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" style="199" customWidth="1"/>
-    <col min="5" max="5" width="48.6640625" style="140" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="210" customWidth="1"/>
+    <col min="1" max="1" width="16.875" style="210" customWidth="1"/>
+    <col min="2" max="2" width="53.625" style="210" customWidth="1"/>
+    <col min="3" max="3" width="20.125" style="210" customWidth="1"/>
+    <col min="4" max="4" width="23.125" style="199" customWidth="1"/>
+    <col min="5" max="5" width="48.625" style="140" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="210" customWidth="1"/>
     <col min="7" max="7" width="14" style="210" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="210" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="210" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="210" customWidth="1"/>
+    <col min="9" max="9" width="15.375" style="210" customWidth="1"/>
     <col min="10" max="10" width="25.5" style="210" customWidth="1"/>
     <col min="11" max="11" width="17.5" style="210" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.6640625" style="210" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.625" style="210" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.5" style="210" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="142"/>
+    <col min="14" max="16384" width="8.875" style="142"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="65" customHeight="1">
+    <row r="1" spans="1:18" ht="65.099999999999994" customHeight="1">
       <c r="A1" s="226" t="s">
         <v>319</v>
       </c>
@@ -8182,7 +8219,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="60">
+    <row r="3" spans="1:18" ht="78.75">
       <c r="A3" s="211" t="s">
         <v>479</v>
       </c>
@@ -8209,7 +8246,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="40">
+    <row r="4" spans="1:18" ht="45">
       <c r="A4" s="211" t="s">
         <v>483</v>
       </c>
@@ -8240,7 +8277,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="110">
+    <row r="5" spans="1:18" ht="135">
       <c r="A5" s="211" t="s">
         <v>487</v>
       </c>
@@ -8271,7 +8308,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="70">
+    <row r="6" spans="1:18" ht="78.75">
       <c r="A6" s="211" t="s">
         <v>490</v>
       </c>
@@ -8302,7 +8339,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="90">
+    <row r="7" spans="1:18" ht="112.5">
       <c r="A7" s="211" t="s">
         <v>493</v>
       </c>
@@ -8401,7 +8438,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8412,19 +8449,19 @@
       <selection pane="bottomRight" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="30.375" customWidth="1"/>
     <col min="3" max="3" width="35" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" style="32" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" style="32" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="81.83203125" customWidth="1"/>
-    <col min="8" max="8" width="87.83203125" style="48" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="32" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="32" customWidth="1"/>
+    <col min="6" max="6" width="16.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="81.875" customWidth="1"/>
+    <col min="8" max="8" width="87.875" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19">
+    <row r="1" spans="1:8" ht="19.5">
       <c r="A1" s="237" t="s">
         <v>227</v>
       </c>
@@ -8435,7 +8472,7 @@
       <c r="F1" s="237"/>
       <c r="G1" s="238"/>
     </row>
-    <row r="2" spans="1:8" ht="70.25" customHeight="1">
+    <row r="2" spans="1:8" ht="70.349999999999994" customHeight="1">
       <c r="A2" s="43"/>
       <c r="B2" s="147" t="s">
         <v>228</v>
@@ -8498,7 +8535,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="142" customFormat="1" ht="98">
+    <row r="5" spans="1:8" s="142" customFormat="1" ht="120">
       <c r="A5" s="200"/>
       <c r="B5" s="203" t="s">
         <v>43</v>
@@ -8522,7 +8559,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="142" customFormat="1" ht="28">
+    <row r="6" spans="1:8" s="142" customFormat="1" ht="30">
       <c r="A6" s="204"/>
       <c r="B6" s="201" t="s">
         <v>114</v>
@@ -8546,7 +8583,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="142" customFormat="1" ht="42">
+    <row r="7" spans="1:8" s="142" customFormat="1" ht="60">
       <c r="A7" s="205"/>
       <c r="B7" s="201" t="s">
         <v>21</v>
@@ -8570,7 +8607,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="142" customFormat="1" ht="100.25" customHeight="1">
+    <row r="8" spans="1:8" s="142" customFormat="1" ht="100.35" customHeight="1">
       <c r="A8" s="184"/>
       <c r="B8" s="149" t="s">
         <v>20</v>
@@ -8594,7 +8631,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="142" customFormat="1" ht="18.5" customHeight="1">
+    <row r="9" spans="1:8" s="142" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A9" s="152"/>
       <c r="B9" s="149" t="s">
         <v>344</v>
@@ -8618,7 +8655,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="142" customFormat="1" ht="70">
+    <row r="10" spans="1:8" s="142" customFormat="1" ht="75">
       <c r="A10" s="152"/>
       <c r="B10" s="149" t="s">
         <v>345</v>
@@ -8642,7 +8679,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="142" customFormat="1" ht="28">
+    <row r="11" spans="1:8" s="142" customFormat="1" ht="45">
       <c r="A11" s="152"/>
       <c r="B11" s="149" t="s">
         <v>346</v>
@@ -8688,7 +8725,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="68" customFormat="1" ht="61.75" customHeight="1">
+    <row r="13" spans="1:8" s="68" customFormat="1" ht="61.7" customHeight="1">
       <c r="A13" s="64"/>
       <c r="C13" s="146" t="s">
         <v>337</v>
@@ -8699,7 +8736,7 @@
       <c r="G13" s="66"/>
       <c r="H13" s="67"/>
     </row>
-    <row r="14" spans="1:8" ht="17" customHeight="1">
+    <row r="14" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="148"/>
       <c r="B14" s="149" t="s">
         <v>70</v>
@@ -8723,7 +8760,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18.5" customHeight="1">
+    <row r="15" spans="1:8" ht="18.600000000000001" customHeight="1">
       <c r="A15" s="152"/>
       <c r="B15" s="149" t="s">
         <v>26</v>
@@ -8769,7 +8806,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="28">
+    <row r="17" spans="1:8" ht="45">
       <c r="A17" s="152"/>
       <c r="B17" s="149" t="s">
         <v>31</v>
@@ -8815,7 +8852,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="142" customFormat="1" ht="34.25" customHeight="1">
+    <row r="19" spans="1:8" s="142" customFormat="1" ht="34.35" customHeight="1">
       <c r="A19" s="160"/>
       <c r="B19" s="149" t="s">
         <v>35</v>
@@ -8839,7 +8876,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="142" customFormat="1" ht="14.5" customHeight="1">
+    <row r="20" spans="1:8" s="142" customFormat="1" ht="14.45" customHeight="1">
       <c r="A20" s="163"/>
       <c r="B20" s="149" t="s">
         <v>45</v>
@@ -8863,7 +8900,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="142" customFormat="1" ht="56">
+    <row r="21" spans="1:8" s="142" customFormat="1" ht="60">
       <c r="A21" s="163"/>
       <c r="B21" s="164" t="s">
         <v>22</v>
@@ -9069,7 +9106,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="34.25" customHeight="1">
+    <row r="30" spans="1:8" ht="34.35" customHeight="1">
       <c r="A30" s="169" t="s">
         <v>39</v>
       </c>
@@ -9096,7 +9133,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="56">
+    <row r="31" spans="1:8" ht="51">
       <c r="A31" s="172" t="s">
         <v>125</v>
       </c>
@@ -9119,7 +9156,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="28">
+    <row r="32" spans="1:8" ht="30">
       <c r="A32" s="169" t="s">
         <v>36</v>
       </c>
@@ -9244,7 +9281,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="42">
+    <row r="37" spans="1:8" ht="38.25">
       <c r="A37" s="169" t="s">
         <v>72</v>
       </c>
@@ -9318,7 +9355,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="56" customHeight="1">
+    <row r="40" spans="1:8" ht="56.1" customHeight="1">
       <c r="A40" s="175"/>
       <c r="B40" s="165" t="s">
         <v>190</v>
@@ -9341,7 +9378,7 @@
       </c>
       <c r="H40" s="108"/>
     </row>
-    <row r="41" spans="1:8" ht="31.25" customHeight="1">
+    <row r="41" spans="1:8" ht="31.35" customHeight="1">
       <c r="A41" s="175"/>
       <c r="B41" s="149" t="s">
         <v>111</v>
@@ -9366,7 +9403,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="31.25" customHeight="1">
+    <row r="42" spans="1:8" ht="31.35" customHeight="1">
       <c r="A42" s="234" t="s">
         <v>48</v>
       </c>
@@ -9391,7 +9428,7 @@
       </c>
       <c r="H42" s="119"/>
     </row>
-    <row r="43" spans="1:8" ht="32" customHeight="1">
+    <row r="43" spans="1:8" ht="32.1" customHeight="1">
       <c r="A43" s="235"/>
       <c r="B43" s="161" t="s">
         <v>188</v>
@@ -9414,7 +9451,7 @@
       </c>
       <c r="H43" s="119"/>
     </row>
-    <row r="44" spans="1:8" ht="23.5" customHeight="1">
+    <row r="44" spans="1:8" ht="23.45" customHeight="1">
       <c r="A44" s="235"/>
       <c r="B44" s="149" t="s">
         <v>112</v>
@@ -9437,7 +9474,7 @@
       </c>
       <c r="H44" s="113"/>
     </row>
-    <row r="45" spans="1:8" ht="35" customHeight="1">
+    <row r="45" spans="1:8" ht="35.1" customHeight="1">
       <c r="A45" s="235"/>
       <c r="B45" s="179" t="s">
         <v>41</v>
@@ -9461,7 +9498,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="70">
+    <row r="46" spans="1:8" ht="75">
       <c r="A46" s="235"/>
       <c r="B46" s="179" t="s">
         <v>42</v>
@@ -9510,7 +9547,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="28">
+    <row r="48" spans="1:8" ht="30">
       <c r="A48" s="235"/>
       <c r="B48" s="149" t="s">
         <v>24</v>
@@ -9534,7 +9571,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="33">
+    <row r="49" spans="1:8" ht="45">
       <c r="A49" s="235"/>
       <c r="B49" s="149" t="s">
         <v>44</v>
@@ -9558,7 +9595,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="44.5" customHeight="1">
+    <row r="50" spans="1:8" ht="44.45" customHeight="1">
       <c r="A50" s="235"/>
       <c r="B50" s="149" t="s">
         <v>46</v>
@@ -9582,7 +9619,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="45.5" customHeight="1">
+    <row r="51" spans="1:8" ht="45.6" customHeight="1">
       <c r="A51" s="236"/>
       <c r="B51" s="149" t="s">
         <v>47</v>
@@ -9762,7 +9799,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="32" customFormat="1" ht="42">
+    <row r="59" spans="1:8" s="32" customFormat="1" ht="45">
       <c r="A59" s="184"/>
       <c r="B59" s="179" t="s">
         <v>59</v>
@@ -9812,7 +9849,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="32" customFormat="1" ht="70">
+    <row r="61" spans="1:8" s="32" customFormat="1" ht="75">
       <c r="A61" s="184"/>
       <c r="B61" s="149" t="s">
         <v>77</v>
@@ -9953,7 +9990,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="20" thickBot="1">
+    <row r="67" spans="1:8" ht="20.25" thickBot="1">
       <c r="A67" s="41" t="s">
         <v>160</v>
       </c>
@@ -9978,7 +10015,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15" thickTop="1">
+    <row r="68" spans="1:8" ht="15.75" thickTop="1">
       <c r="A68" s="25"/>
       <c r="B68" s="63" t="s">
         <v>64</v>
@@ -10090,7 +10127,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="66">
+    <row r="73" spans="1:8" ht="90">
       <c r="B73" s="63" t="s">
         <v>175</v>
       </c>
@@ -10270,18 +10307,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" customWidth="1"/>
+    <col min="1" max="1" width="40.375" customWidth="1"/>
     <col min="2" max="2" width="56.5" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="3" max="3" width="38.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" customHeight="1" thickBot="1">
@@ -10294,7 +10331,7 @@
       <c r="E1" s="243"/>
       <c r="F1" s="243"/>
     </row>
-    <row r="2" spans="1:6" ht="35.5" customHeight="1" thickTop="1">
+    <row r="2" spans="1:6" ht="35.450000000000003" customHeight="1" thickTop="1">
       <c r="A2" s="242" t="s">
         <v>324</v>
       </c>
@@ -10410,13 +10447,13 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="189" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" style="142" customWidth="1"/>
+    <col min="1" max="1" width="19.375" style="189" customWidth="1"/>
+    <col min="2" max="2" width="33.625" style="142" customWidth="1"/>
     <col min="3" max="3" width="71.5" style="142" customWidth="1"/>
     <col min="4" max="4" width="33.5" style="142" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="142"/>
+    <col min="5" max="16384" width="8.875" style="142"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" thickTop="1" thickBot="1">
@@ -10433,7 +10470,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="58" thickTop="1" thickBot="1">
+    <row r="2" spans="1:4" ht="61.5" thickTop="1" thickBot="1">
       <c r="A2" s="189" t="s">
         <v>364</v>
       </c>
@@ -10447,7 +10484,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="43" thickBot="1">
+    <row r="3" spans="1:4" ht="45.75" thickBot="1">
       <c r="A3" s="190" t="s">
         <v>367</v>
       </c>
@@ -10461,7 +10498,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="29" thickBot="1">
+    <row r="4" spans="1:4" ht="30.75" thickBot="1">
       <c r="A4" s="190" t="s">
         <v>480</v>
       </c>
@@ -10475,7 +10512,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" thickBot="1">
+    <row r="5" spans="1:4" ht="16.5" thickBot="1">
       <c r="A5" s="190" t="s">
         <v>372</v>
       </c>
@@ -10503,7 +10540,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="42">
+    <row r="7" spans="1:4" ht="45">
       <c r="A7" s="223" t="s">
         <v>532</v>
       </c>
@@ -10517,7 +10554,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30">
+    <row r="8" spans="1:4" ht="31.5">
       <c r="A8" s="223" t="s">
         <v>535</v>
       </c>
@@ -10531,7 +10568,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="183" thickBot="1">
+    <row r="9" spans="1:4" ht="195.75" thickBot="1">
       <c r="A9" s="191" t="s">
         <v>78</v>
       </c>
@@ -10545,7 +10582,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="29" thickBot="1">
+    <row r="10" spans="1:4" ht="30.75" thickBot="1">
       <c r="A10" s="190" t="s">
         <v>375</v>
       </c>
@@ -10559,7 +10596,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="29" thickBot="1">
+    <row r="11" spans="1:4" ht="30.75" thickBot="1">
       <c r="A11" s="190" t="s">
         <v>378</v>
       </c>
@@ -10573,7 +10610,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31" thickBot="1">
+    <row r="12" spans="1:4" ht="45.75" thickBot="1">
       <c r="A12" s="190" t="s">
         <v>380</v>
       </c>
@@ -10587,7 +10624,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="57" thickBot="1">
+    <row r="13" spans="1:4" ht="60.75" thickBot="1">
       <c r="A13" s="190" t="s">
         <v>382</v>
       </c>
@@ -10601,7 +10638,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="99" thickBot="1">
+    <row r="14" spans="1:4" ht="105.75" thickBot="1">
       <c r="A14" s="190" t="s">
         <v>385</v>
       </c>
@@ -10615,7 +10652,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="57" thickBot="1">
+    <row r="15" spans="1:4" ht="60.75" thickBot="1">
       <c r="A15" s="190" t="s">
         <v>388</v>
       </c>
@@ -10629,7 +10666,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="127" thickBot="1">
+    <row r="16" spans="1:4" ht="135.75" thickBot="1">
       <c r="A16" s="190" t="s">
         <v>391</v>
       </c>
@@ -10643,7 +10680,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16" thickBot="1">
+    <row r="17" spans="1:4" ht="16.5" thickBot="1">
       <c r="A17" s="190" t="s">
         <v>394</v>
       </c>
@@ -10655,7 +10692,7 @@
       </c>
       <c r="D17" s="23"/>
     </row>
-    <row r="18" spans="1:4" ht="71" thickBot="1">
+    <row r="18" spans="1:4" ht="90.75" thickBot="1">
       <c r="A18" s="190" t="s">
         <v>397</v>
       </c>
@@ -10669,7 +10706,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="29" thickBot="1">
+    <row r="19" spans="1:4" ht="30.75" thickBot="1">
       <c r="A19" s="190" t="s">
         <v>398</v>
       </c>
@@ -10683,7 +10720,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="71" thickBot="1">
+    <row r="20" spans="1:4" ht="75.75" thickBot="1">
       <c r="A20" s="190" t="s">
         <v>400</v>
       </c>
@@ -10697,7 +10734,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="85" thickBot="1">
+    <row r="21" spans="1:4" ht="90.75" thickBot="1">
       <c r="A21" s="190" t="s">
         <v>79</v>
       </c>
@@ -10711,7 +10748,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="56">
+    <row r="22" spans="1:4" ht="60">
       <c r="A22" s="192" t="s">
         <v>402</v>
       </c>
@@ -10725,7 +10762,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="71" thickBot="1">
+    <row r="23" spans="1:4" ht="75.75" thickBot="1">
       <c r="A23" s="193" t="s">
         <v>404</v>
       </c>
@@ -10739,7 +10776,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="43" thickBot="1">
+    <row r="24" spans="1:4" ht="45.75" thickBot="1">
       <c r="A24" s="190" t="s">
         <v>406</v>
       </c>
@@ -10753,7 +10790,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="29" thickBot="1">
+    <row r="25" spans="1:4" ht="30.75" thickBot="1">
       <c r="A25" s="190" t="s">
         <v>408</v>
       </c>
@@ -10767,7 +10804,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="57" thickBot="1">
+    <row r="26" spans="1:4" ht="60.75" thickBot="1">
       <c r="A26" s="190" t="s">
         <v>410</v>
       </c>
@@ -10781,7 +10818,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="31" thickBot="1">
+    <row r="27" spans="1:4" ht="32.25" thickBot="1">
       <c r="A27" s="190" t="s">
         <v>412</v>
       </c>
@@ -10795,7 +10832,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="71" thickBot="1">
+    <row r="28" spans="1:4" ht="75.75" thickBot="1">
       <c r="A28" s="190" t="s">
         <v>414</v>
       </c>
@@ -10809,7 +10846,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="43" thickBot="1">
+    <row r="29" spans="1:4" ht="45.75" thickBot="1">
       <c r="A29" s="190" t="s">
         <v>416</v>
       </c>
@@ -10823,7 +10860,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="43" thickBot="1">
+    <row r="30" spans="1:4" ht="45.75" thickBot="1">
       <c r="A30" s="190" t="s">
         <v>418</v>
       </c>
@@ -10837,7 +10874,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="56">
+    <row r="31" spans="1:4" ht="60">
       <c r="A31" s="192" t="s">
         <v>420</v>
       </c>
@@ -10851,7 +10888,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="28">
+    <row r="32" spans="1:4" ht="30">
       <c r="A32" s="194" t="s">
         <v>422</v>
       </c>
@@ -10863,7 +10900,7 @@
       </c>
       <c r="D32" s="23"/>
     </row>
-    <row r="33" spans="1:4" ht="28">
+    <row r="33" spans="1:4" ht="30">
       <c r="A33" s="194" t="s">
         <v>424</v>
       </c>
@@ -10887,7 +10924,7 @@
       </c>
       <c r="D34" s="23"/>
     </row>
-    <row r="35" spans="1:4" ht="70">
+    <row r="35" spans="1:4" ht="75">
       <c r="A35" s="194" t="s">
         <v>430</v>
       </c>
@@ -10915,7 +10952,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="140">
+    <row r="37" spans="1:4" ht="150">
       <c r="A37" s="194" t="s">
         <v>80</v>
       </c>
@@ -10929,7 +10966,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="84">
+    <row r="38" spans="1:4" ht="90">
       <c r="A38" s="194" t="s">
         <v>433</v>
       </c>
@@ -10943,7 +10980,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="70">
+    <row r="39" spans="1:4" ht="75">
       <c r="A39" s="194" t="s">
         <v>436</v>
       </c>
@@ -10957,7 +10994,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="56">
+    <row r="40" spans="1:4" ht="60">
       <c r="A40" s="191" t="s">
         <v>439</v>
       </c>
@@ -10985,7 +11022,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="70">
+    <row r="42" spans="1:4" ht="75">
       <c r="A42" s="198" t="s">
         <v>81</v>
       </c>
@@ -11013,7 +11050,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="42">
+    <row r="44" spans="1:4" ht="45">
       <c r="A44" s="198" t="s">
         <v>444</v>
       </c>
@@ -11027,7 +11064,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="42">
+    <row r="45" spans="1:4" ht="45">
       <c r="A45" s="198" t="s">
         <v>447</v>
       </c>
@@ -11041,7 +11078,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="154">
+    <row r="46" spans="1:4" ht="165">
       <c r="A46" s="198" t="s">
         <v>82</v>
       </c>
@@ -11055,7 +11092,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="28">
+    <row r="47" spans="1:4" ht="30">
       <c r="A47" s="198" t="s">
         <v>83</v>
       </c>
@@ -11067,7 +11104,7 @@
       </c>
       <c r="D47" s="23"/>
     </row>
-    <row r="48" spans="1:4" ht="98">
+    <row r="48" spans="1:4" ht="105">
       <c r="A48" s="198" t="s">
         <v>450</v>
       </c>
@@ -11081,7 +11118,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="112">
+    <row r="49" spans="1:4" ht="120">
       <c r="A49" s="198" t="s">
         <v>452</v>
       </c>
@@ -11095,7 +11132,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="70">
+    <row r="50" spans="1:4" ht="75">
       <c r="A50" s="198" t="s">
         <v>454</v>
       </c>
@@ -11109,7 +11146,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="56">
+    <row r="51" spans="1:4" ht="60">
       <c r="A51" s="198" t="s">
         <v>456</v>
       </c>
@@ -11123,7 +11160,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="98">
+    <row r="52" spans="1:4" ht="105">
       <c r="A52" s="198" t="s">
         <v>459</v>
       </c>
@@ -11137,7 +11174,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="42">
+    <row r="53" spans="1:4" ht="45">
       <c r="A53" s="198" t="s">
         <v>462</v>
       </c>
@@ -11151,7 +11188,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="28">
+    <row r="54" spans="1:4" ht="30">
       <c r="A54" s="198" t="s">
         <v>513</v>
       </c>
@@ -11165,7 +11202,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="28">
+    <row r="55" spans="1:4" ht="30">
       <c r="A55" s="198" t="s">
         <v>463</v>
       </c>
@@ -11179,7 +11216,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="56">
+    <row r="56" spans="1:4" ht="60">
       <c r="A56" s="198" t="s">
         <v>466</v>
       </c>
@@ -11213,27 +11250,27 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="78.33203125" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.625" customWidth="1"/>
+    <col min="2" max="2" width="78.375" customWidth="1"/>
+    <col min="3" max="3" width="45.625" customWidth="1"/>
     <col min="4" max="4" width="50.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="42" customFormat="1" ht="15" thickBot="1"/>
-    <row r="2" spans="1:3" s="42" customFormat="1" ht="17" thickBot="1">
+    <row r="1" spans="1:3" s="42" customFormat="1" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:3" s="42" customFormat="1" ht="18" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:3" s="42" customFormat="1" ht="16" thickTop="1" thickBot="1">
+    <row r="3" spans="1:3" s="42" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>230</v>
       </c>
@@ -11247,7 +11284,7 @@
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1">
+    <row r="6" spans="1:3" ht="15.75" thickBot="1">
       <c r="A6" s="24"/>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
@@ -11261,7 +11298,7 @@
       </c>
       <c r="C7" s="24"/>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1">
+    <row r="8" spans="1:3" ht="15.75" thickBot="1">
       <c r="A8" s="15" t="s">
         <v>225</v>
       </c>
@@ -11275,12 +11312,12 @@
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1">
+    <row r="10" spans="1:3" ht="15.75" thickBot="1">
       <c r="A10" s="24"/>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
     </row>
-    <row r="11" spans="1:3" ht="42">
+    <row r="11" spans="1:3" ht="45">
       <c r="A11" s="12" t="s">
         <v>176</v>
       </c>
@@ -11316,7 +11353,7 @@
       </c>
       <c r="C14" s="24"/>
     </row>
-    <row r="15" spans="1:3" ht="28">
+    <row r="15" spans="1:3" ht="30">
       <c r="A15" s="11" t="s">
         <v>182</v>
       </c>
@@ -11325,7 +11362,7 @@
       </c>
       <c r="C15" s="24"/>
     </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1">
+    <row r="16" spans="1:3" ht="15.75" thickBot="1">
       <c r="A16" s="9" t="s">
         <v>183</v>
       </c>
@@ -11347,14 +11384,14 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet8" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
